--- a/examples/oucru/oucru-fl/resources/outputs/templates/tmp/ccfgs_fl_data_fixed.xlsx
+++ b/examples/oucru/oucru-fl/resources/outputs/templates/tmp/ccfgs_fl_data_fixed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="607">
   <si>
     <t>from_name</t>
   </si>
@@ -5495,7 +5495,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6549,6 +6549,34 @@
       </c>
       <c r="F66" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
